--- a/data/input/cas_source.xlsx
+++ b/data/input/cas_source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.lombard\OneDrive - Lojelis\Bureau\rd_labs\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lojelis-my.sharepoint.com/personal/benjamin_lombard_lojelis_com/Documents/Bureau/rd_labs1/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF17F2-1AC4-4174-806F-BDA638C1F513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E5FF17F2-1AC4-4174-806F-BDA638C1F513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F6807A-4795-4C9C-9AFB-D6F75108ADDA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>cas_name</t>
-  </si>
-  <si>
-    <t>cas_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="217">
   <si>
     <t>81-15-2</t>
   </si>
@@ -39,21 +33,6 @@
     <t>101-77-9</t>
   </si>
   <si>
-    <t>3194-55-6</t>
-  </si>
-  <si>
-    <t>25637-99-4</t>
-  </si>
-  <si>
-    <t>134237-50-6</t>
-  </si>
-  <si>
-    <t>134237-51-7</t>
-  </si>
-  <si>
-    <t>134237-52-8</t>
-  </si>
-  <si>
     <t>117-81-7</t>
   </si>
   <si>
@@ -99,21 +78,6 @@
     <t>4,4’- Diaminodiphenylmethane (MDA)</t>
   </si>
   <si>
-    <t>1,2,5,6,9,10-hexabromocyclododecane</t>
-  </si>
-  <si>
-    <t>Hexabromocyclododecane</t>
-  </si>
-  <si>
-    <t>alpha-hexabromocyclododecane</t>
-  </si>
-  <si>
-    <t>beta-hexabromocyclododecane</t>
-  </si>
-  <si>
-    <t>gamma-hexabromocyclododecane</t>
-  </si>
-  <si>
     <t>Bis(2-ethylhexyl) phthalate (DEHP)</t>
   </si>
   <si>
@@ -151,6 +115,569 @@
   </si>
   <si>
     <t>Chromium trioxide</t>
+  </si>
+  <si>
+    <t>Substance name</t>
+  </si>
+  <si>
+    <t>CAS number</t>
+  </si>
+  <si>
+    <t>Polychlorinated terphenyls (PCTs)</t>
+  </si>
+  <si>
+    <t>Chloroethene</t>
+  </si>
+  <si>
+    <t>Liquid substances or mixtures which are regarded as dangerous in accordance with Directive 1999/45/EC or are fulfilling the criteria for any of the following hazard classes or categories set out in Annex I to Regulation (EC) No 1272/2008 (See group members):</t>
+  </si>
+  <si>
+    <t>Tris (2,3 dibromopropyl) phosphate</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Asbestos fibres</t>
+  </si>
+  <si>
+    <t>Tris(aziridinyl)phosphinoxide</t>
+  </si>
+  <si>
+    <t>Polybromobiphenyls, Polybrominatedbiphenyls (PBB)</t>
+  </si>
+  <si>
+    <t>Entry 9</t>
+  </si>
+  <si>
+    <t>Entry 10</t>
+  </si>
+  <si>
+    <t>Volatile esters of bromoacetic acids</t>
+  </si>
+  <si>
+    <t>2-naphthylamine and its salts</t>
+  </si>
+  <si>
+    <t>Benzidine and its salts</t>
+  </si>
+  <si>
+    <t>4-Nitrobiphenyl</t>
+  </si>
+  <si>
+    <t>4-Aminobiphenyl xenylamine and its salts</t>
+  </si>
+  <si>
+    <t>Lead carbonates</t>
+  </si>
+  <si>
+    <t>Lead sulphates</t>
+  </si>
+  <si>
+    <t>Mercury compounds</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Arsenic compounds</t>
+  </si>
+  <si>
+    <t>Organostannic compounds</t>
+  </si>
+  <si>
+    <t>Di-μ-oxo-di-n-butylstanniohydroxyborane / Dibutyltin hydrogen borate C8H19BO3Sn (DBB)</t>
+  </si>
+  <si>
+    <t>Cadmium and its compounds</t>
+  </si>
+  <si>
+    <t>Monomethyl — tetrachlorodiphenyl methane Trade name: Ugilec 141</t>
+  </si>
+  <si>
+    <t>Monomethyl-dichloro-diphenyl methane Trade name: Ugilec 121, Ugilec 21</t>
+  </si>
+  <si>
+    <t>Monomethyl-dibromo-diphenyl methane bromobenzylbromotoluene, mixture of isomers</t>
+  </si>
+  <si>
+    <t>Nickel and its compounds</t>
+  </si>
+  <si>
+    <t>Substances which are classified as carcinogen category 1A or 1B in Part 3 of Annex VI to Regulation (EC) No 1272/2008 and are listed in Appendix 1 or Appendix 2, respectively.</t>
+  </si>
+  <si>
+    <t>Substances which are classified as germ cell mutagen category 1A or 1B in Part 3 of Annex VI to Regulation (EC) No 1272/2008 and are listed in Appendix 3 or Appendix 4, respectively.</t>
+  </si>
+  <si>
+    <t>Substances which are classified as reproductive toxicant category 1A or 1B in Part 3 of Annex VI to Regulation (EC) No 1272/2008 and are listed in Appendix 5 or Appendix 6, respectively.</t>
+  </si>
+  <si>
+    <t>Creosote and Creosote related substances</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>1,1,2-Trichloroethane</t>
+  </si>
+  <si>
+    <t>1,1,2,2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t>1,1,1,2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t>Pentachloroethane</t>
+  </si>
+  <si>
+    <t>1,1-Dichloroethene</t>
+  </si>
+  <si>
+    <t>Substances classified as flammable gases category 1 or 2, flammable liquids categories 1, 2 or 3, flammable solids category 1 or 2,substances and mixtures which, in contact with water, emit flammable gases, category 1, 2 or 3, pyrophoric liquids category 1 or pyrophoric solids category 1, regardless of whether they appear in Part 3 of Annex VI to Regulation (EC) No 1272/2008 or not</t>
+  </si>
+  <si>
+    <t>Hexachloroethane</t>
+  </si>
+  <si>
+    <t>Azocolourants and Azodyes</t>
+  </si>
+  <si>
+    <t>Diphenylether, octabromo derivative C12H2Br8O</t>
+  </si>
+  <si>
+    <t>Entry 46</t>
+  </si>
+  <si>
+    <t>Nonylphenol ethoxylates (C2H4O)nC15H24O</t>
+  </si>
+  <si>
+    <t>Chromium VI compounds</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Trichlorobenzene</t>
+  </si>
+  <si>
+    <t>Polycyclic-aromatic hydrocarbons (PAH)</t>
+  </si>
+  <si>
+    <t>Polycyclic aromatic hydrocarbons (PAH)</t>
+  </si>
+  <si>
+    <t>Diisobutyl phthalate (DIBP); Dibutyl phthalate (DBP); Benzyl butyl phthalate (BBP); Bis(2-ethylhexyl) phthalate (DEHP)</t>
+  </si>
+  <si>
+    <t>The following phthalates (or other CAS and EC numbers covering the substance) (See group members) [Entry 52]</t>
+  </si>
+  <si>
+    <t>2-(2-methoxyethoxy)ethanol (DEGME)</t>
+  </si>
+  <si>
+    <t>2-(2-butoxyethoxy)ethanol (DEGBE)</t>
+  </si>
+  <si>
+    <t>Methylenediphenyl diisocyanate (MDI) including the following specific isomers (See group members):</t>
+  </si>
+  <si>
+    <t>Cyclohexane</t>
+  </si>
+  <si>
+    <t>Ammonium nitrate (AN)</t>
+  </si>
+  <si>
+    <t>Dichloromethane</t>
+  </si>
+  <si>
+    <t>Acrylamide</t>
+  </si>
+  <si>
+    <t>Dimethyl fumarate (DMFu)</t>
+  </si>
+  <si>
+    <t>Entry 62</t>
+  </si>
+  <si>
+    <t>Lead and its compounds</t>
+  </si>
+  <si>
+    <t>1,4-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>Inorganic ammonium salts</t>
+  </si>
+  <si>
+    <t>4,4-isopropylidenediphenol</t>
+  </si>
+  <si>
+    <t>perfluorononan-1-oic acid (PFNA); nonadecafluorodecanoic acid (PFDA); henicosafluoroundecanoic acid (PFUnDA); tricosafluorododecanoic acid (PFDoDA); pentacosafluorotridecanoic acid (PFTrDA); heptacosafluorotetradecanoic acid (PFTDA); including their salts and precursors
+C9-C14 linear and/or branched perfluorocarboxylic acids (C9-C14 PFCAs), their salts and C9-C14 PFCAs-related substances</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Octamethylcyclotetrasiloxane (D4); Decamethylcyclopentasiloxane (D5); dodecamethylcyclohexasiloxane (D6)</t>
+  </si>
+  <si>
+    <t>1-methyl-2-pyrrolidone</t>
+  </si>
+  <si>
+    <t>The following substances which are classified as carcinogenic, mutagenic or toxic for reproduction, category 1A or 1B (See group members) [Entry 72]</t>
+  </si>
+  <si>
+    <t>(3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctyl)silanetriol and any of its mono-, di- or tri-O-(alkyl) derivatives</t>
+  </si>
+  <si>
+    <t>Diisocyanates</t>
+  </si>
+  <si>
+    <t>Substances in tattoo inks and permanent make up</t>
+  </si>
+  <si>
+    <t>N,N-dimethylformamide</t>
+  </si>
+  <si>
+    <t>formaldehyde and formaldehyde releasers</t>
+  </si>
+  <si>
+    <t>microplastics</t>
+  </si>
+  <si>
+    <t>undecafluorohexanoic acid (PFHxA), its salts and related substances</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>75-01-4</t>
+  </si>
+  <si>
+    <t>126-72-7</t>
+  </si>
+  <si>
+    <t>71-43-2</t>
+  </si>
+  <si>
+    <t>545-55-1</t>
+  </si>
+  <si>
+    <t>92-93-3</t>
+  </si>
+  <si>
+    <t>7439-97-6</t>
+  </si>
+  <si>
+    <t>75113-37-0</t>
+  </si>
+  <si>
+    <t>76253-60-6</t>
+  </si>
+  <si>
+    <t>99688-47-8</t>
+  </si>
+  <si>
+    <t>67-66-3</t>
+  </si>
+  <si>
+    <t>79-00-5</t>
+  </si>
+  <si>
+    <t>79-34-5</t>
+  </si>
+  <si>
+    <t>630-20-6</t>
+  </si>
+  <si>
+    <t>76-01-7</t>
+  </si>
+  <si>
+    <t>75-35-4</t>
+  </si>
+  <si>
+    <t>67-72-1</t>
+  </si>
+  <si>
+    <t>108-88-3</t>
+  </si>
+  <si>
+    <t>120-82-1</t>
+  </si>
+  <si>
+    <t>111-77-3</t>
+  </si>
+  <si>
+    <t>112-34-5</t>
+  </si>
+  <si>
+    <t>110-82-7</t>
+  </si>
+  <si>
+    <t>6484-52-2</t>
+  </si>
+  <si>
+    <t>75-09-2</t>
+  </si>
+  <si>
+    <t>79-06-1</t>
+  </si>
+  <si>
+    <t>624-49-7</t>
+  </si>
+  <si>
+    <t>106-46-7</t>
+  </si>
+  <si>
+    <t>80-05-7</t>
+  </si>
+  <si>
+    <t>-
+-</t>
+  </si>
+  <si>
+    <t>67-56-1</t>
+  </si>
+  <si>
+    <t>872-50-4</t>
+  </si>
+  <si>
+    <t>68-12-2</t>
+  </si>
+  <si>
+    <t>Hexabromocyclododecane (HBCDD)</t>
+  </si>
+  <si>
+    <t>Sodium chromate</t>
+  </si>
+  <si>
+    <t>Potassium dichromate</t>
+  </si>
+  <si>
+    <t>Potassium chromate</t>
+  </si>
+  <si>
+    <t>Ammonium dichromate</t>
+  </si>
+  <si>
+    <t>Sodium dichromate</t>
+  </si>
+  <si>
+    <t>Acids generated from chromium trioxide and their oligomers</t>
+  </si>
+  <si>
+    <t>Formaldehyde, oligomeric reaction products with aniline</t>
+  </si>
+  <si>
+    <t>Pentazinc chromate octahydroxide</t>
+  </si>
+  <si>
+    <t>2,2'-dichloro-4,4'-methylenedianiline (MOCA)</t>
+  </si>
+  <si>
+    <t>1,2-dichloroethane (EDC)</t>
+  </si>
+  <si>
+    <t>Bis(2-methoxyethyl) ether</t>
+  </si>
+  <si>
+    <t>Potassium hydroxyoctaoxodizincatedichromate</t>
+  </si>
+  <si>
+    <t>Strontium chromate</t>
+  </si>
+  <si>
+    <t>Dichromium tris(chromate)</t>
+  </si>
+  <si>
+    <t>Arsenic acid</t>
+  </si>
+  <si>
+    <t>Bis(2-methoxyethyl) phthalate</t>
+  </si>
+  <si>
+    <t>Dipentyl phthalate</t>
+  </si>
+  <si>
+    <t>1-bromopropane (n-propyl bromide)</t>
+  </si>
+  <si>
+    <t>Pitch, coal tar, high-temp.</t>
+  </si>
+  <si>
+    <t>1,2-Benzenedicarboxylic acid, di-C7-11-branched and linear alkyl esters</t>
+  </si>
+  <si>
+    <t>1,2-Benzenedicarboxylic acid, di-C6-8-branched alkyl esters, C7-rich</t>
+  </si>
+  <si>
+    <t>1,2-Benzenedicarboxylic acid, dipentyl ester, branched and linear</t>
+  </si>
+  <si>
+    <t>Anthracene oil</t>
+  </si>
+  <si>
+    <t>n-pentyl-isopentyl phthalate</t>
+  </si>
+  <si>
+    <t>4-(1,1,3,3-tetramethylbutyl)phenol, ethoxylated</t>
+  </si>
+  <si>
+    <t>4-Nonylphenol, branched and linear, ethoxylated</t>
+  </si>
+  <si>
+    <t>Diisopentyl phthalate</t>
+  </si>
+  <si>
+    <t>5-sec-butyl-2-(2,4-dimethylcyclohex-3-en-1-yl)-5-methyl-1,3-dioxane [1], 5-sec-butyl-2-(4,6-dimethylcyclohex-3-en-1-yl)-5-methyl-1,3-dioxane [2]</t>
+  </si>
+  <si>
+    <t>1,2-benzenedicarboxylic acid, di-C6-10-alkyl esters or mixed decyl and hexyl and octyl diesters</t>
+  </si>
+  <si>
+    <t>1,2-Benzenedicarboxylic acid, dihexyl ester, branched and linear</t>
+  </si>
+  <si>
+    <t>Sodium perborate, perboric acid, sodium salt</t>
+  </si>
+  <si>
+    <t>Dihexyl phthalate</t>
+  </si>
+  <si>
+    <t>2-benzotriazol-2-yl-4,6-di-tert-butylphenol (UV-320)</t>
+  </si>
+  <si>
+    <t>2,4-di-tert-butyl-6-(5-chlorobenzotriazol-2-yl)phenol (UV-327)</t>
+  </si>
+  <si>
+    <t>Sodium peroxometaborate</t>
+  </si>
+  <si>
+    <t>Trixylyl phosphate</t>
+  </si>
+  <si>
+    <t>2-(2H-benzotriazol-2-yl)-4,6-ditertpentylphenol (UV-328)</t>
+  </si>
+  <si>
+    <t>2-(2H-benzotriazol-2-yl)-4-(tert-butyl)-6-(sec-butyl)phenol (UV-350)</t>
+  </si>
+  <si>
+    <t>4,4'-bis(dimethylamino)-4''-(methylamino)trityl alcohol</t>
+  </si>
+  <si>
+    <t>Tetraethyllead</t>
+  </si>
+  <si>
+    <t>Reaction products of 1,3,4-thiadiazolidine-2,5-dithione, formaldehyde and 4-heptylphenol, branched and linear (RP-HP)</t>
+  </si>
+  <si>
+    <t>2-ethylhexyl 10-ethyl-4,4-dioctyl-7-oxo-8-oxa-3,5-dithia-4-stannatetradecanoate (DOTE)</t>
+  </si>
+  <si>
+    <t>Reaction mass of 2-ethylhexyl 10-ethyl-4,4-dioctyl-7-oxo-8-oxa-3,5-dithia-4-stannatetradecanoate and 2-ethylhexyl 10-ethyl-4-[[2-[(2-ethylhexyl)oxy]-2-oxoethyl]thio]-4-octyl-7-oxo-8-oxa-3,5-dithia-4-stannatetradecanoate (reaction mass of DOTE and MOTE)</t>
+  </si>
+  <si>
+    <t>7775-11-3</t>
+  </si>
+  <si>
+    <t>7778-50-9</t>
+  </si>
+  <si>
+    <t>7789-00-6</t>
+  </si>
+  <si>
+    <t>7789-09-5</t>
+  </si>
+  <si>
+    <t>7789-12-0</t>
+  </si>
+  <si>
+    <t>25214-70-4</t>
+  </si>
+  <si>
+    <t>49663-84-5</t>
+  </si>
+  <si>
+    <t>101-14-4</t>
+  </si>
+  <si>
+    <t>107-06-2</t>
+  </si>
+  <si>
+    <t>111-96-6</t>
+  </si>
+  <si>
+    <t>11103-86-9</t>
+  </si>
+  <si>
+    <t>7789-06-2</t>
+  </si>
+  <si>
+    <t>24613-89-6</t>
+  </si>
+  <si>
+    <t>7778-39-4</t>
+  </si>
+  <si>
+    <t>117-82-8</t>
+  </si>
+  <si>
+    <t>131-18-0</t>
+  </si>
+  <si>
+    <t>106-94-5</t>
+  </si>
+  <si>
+    <t>65996-93-2</t>
+  </si>
+  <si>
+    <t>68515-42-4</t>
+  </si>
+  <si>
+    <t>71888-89-6</t>
+  </si>
+  <si>
+    <t>84777-06-0</t>
+  </si>
+  <si>
+    <t>90640-80-5</t>
+  </si>
+  <si>
+    <t>605-50-5</t>
+  </si>
+  <si>
+    <t>68515-50-4</t>
+  </si>
+  <si>
+    <t>84-75-3</t>
+  </si>
+  <si>
+    <t>3846-71-7</t>
+  </si>
+  <si>
+    <t>3864-99-1</t>
+  </si>
+  <si>
+    <t>7632-04-4</t>
+  </si>
+  <si>
+    <t>25155-23-1</t>
+  </si>
+  <si>
+    <t>25973-55-1</t>
+  </si>
+  <si>
+    <t>36437-37-3</t>
+  </si>
+  <si>
+    <t>561-41-1</t>
+  </si>
+  <si>
+    <t>78-00-2</t>
+  </si>
+  <si>
+    <t>15571-58-1</t>
   </si>
 </sst>
 </file>
@@ -192,8 +719,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,170 +1018,1082 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B130" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
+    </row>
+    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
